--- a/brand_new_workbook.xlsx
+++ b/brand_new_workbook.xlsx
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Goodbye</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Excel Users</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Users!</t>
+          <t>!</t>
         </is>
       </c>
     </row>

--- a/brand_new_workbook.xlsx
+++ b/brand_new_workbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/brand_new_workbook.xlsx
+++ b/brand_new_workbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,29 +432,32 @@
           <t>Excel Users</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>!</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>One</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>row</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>text</t>
         </is>

--- a/brand_new_workbook.xlsx
+++ b/brand_new_workbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,32 +432,29 @@
           <t>Excel Users</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>!</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>One</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>row</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>text</t>
         </is>

--- a/brand_new_workbook.xlsx
+++ b/brand_new_workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
